--- a/RE-Framework_RPA07_티켓랭킹_박채연/Data/Output/RPA07_티켓랭킹.xlsx
+++ b/RE-Framework_RPA07_티켓랭킹_박채연/Data/Output/RPA07_티켓랭킹.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\REFramework\RE-Framework_RPA07_티켓랭킹_박채연\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCC7462-57B5-4160-BDFA-AAECFD9150CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F1D19D-E7E2-448C-AEAB-8C8410714A59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38505" yWindow="-1545" windowWidth="38625" windowHeight="21105" xr2:uid="{0BD078E0-6F7F-4FD5-84E9-23779B48D36E}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="252">
   <si>
     <t>시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,33 @@
     <t>1위</t>
   </si>
   <si>
+    <t>2024 나이트레이스 인 부산</t>
+  </si>
+  <si>
+    <t>2024년08월03일</t>
+  </si>
+  <si>
+    <t>광안리해수욕장</t>
+  </si>
+  <si>
+    <t>2위</t>
+  </si>
+  <si>
+    <t>이토 준지 호러하우스</t>
+  </si>
+  <si>
+    <t>2024년06월15일</t>
+  </si>
+  <si>
+    <t>2024년09월08일</t>
+  </si>
+  <si>
+    <t>DUEX(홍대 LC TOWER B3F)</t>
+  </si>
+  <si>
+    <t>3위</t>
+  </si>
+  <si>
     <t>뮤지컬 [등등곡]</t>
   </si>
   <si>
@@ -64,33 +91,6 @@
     <t>대학로 TOM 1관</t>
   </si>
   <si>
-    <t>2위</t>
-  </si>
-  <si>
-    <t>이토 준지 호러하우스</t>
-  </si>
-  <si>
-    <t>2024년06월15일</t>
-  </si>
-  <si>
-    <t>2024년09월08일</t>
-  </si>
-  <si>
-    <t>DUEX(홍대 LC TOWER B3F)</t>
-  </si>
-  <si>
-    <t>3위</t>
-  </si>
-  <si>
-    <t>2024 나이트레이스 인 부산</t>
-  </si>
-  <si>
-    <t>2024년08월03일</t>
-  </si>
-  <si>
-    <t>광안리해수욕장</t>
-  </si>
-  <si>
     <t>4위</t>
   </si>
   <si>
@@ -106,6 +106,18 @@
     <t>5위</t>
   </si>
   <si>
+    <t>BREN JOY LIVE IN SEOUL</t>
+  </si>
+  <si>
+    <t>2024년07월30일</t>
+  </si>
+  <si>
+    <t>무신사 개러지 musinsa garage</t>
+  </si>
+  <si>
+    <t>6위</t>
+  </si>
+  <si>
     <t>뮤지컬 〈에밀〉</t>
   </si>
   <si>
@@ -115,18 +127,6 @@
     <t>예스24스테이지 3관</t>
   </si>
   <si>
-    <t>6위</t>
-  </si>
-  <si>
-    <t>BREN JOY LIVE IN SEOUL</t>
-  </si>
-  <si>
-    <t>2024년07월30일</t>
-  </si>
-  <si>
-    <t>무신사 개러지 musinsa garage</t>
-  </si>
-  <si>
     <t>7위</t>
   </si>
   <si>
@@ -139,6 +139,21 @@
     <t>8위</t>
   </si>
   <si>
+    <t>뮤지컬 [하데스타운] 한국 공연</t>
+  </si>
+  <si>
+    <t>2024년07월12일</t>
+  </si>
+  <si>
+    <t>2024년10월06일</t>
+  </si>
+  <si>
+    <t>샤롯데씨어터</t>
+  </si>
+  <si>
+    <t>9위</t>
+  </si>
+  <si>
     <t>송승환의 가족뮤지컬 [정글북]</t>
   </si>
   <si>
@@ -151,21 +166,6 @@
     <t>올림픽공원 내 우리금융아트홀</t>
   </si>
   <si>
-    <t>9위</t>
-  </si>
-  <si>
-    <t>뮤지컬 [하데스타운] 한국 공연</t>
-  </si>
-  <si>
-    <t>2024년07월12일</t>
-  </si>
-  <si>
-    <t>2024년10월06일</t>
-  </si>
-  <si>
-    <t>샤롯데씨어터</t>
-  </si>
-  <si>
     <t>10위</t>
   </si>
   <si>
@@ -196,13 +196,91 @@
     <t>12위</t>
   </si>
   <si>
+    <t>강남심포니오케스트라 제168회 강남마티네 콘서트〈GREAT COMPOSER SERIES〉</t>
+  </si>
+  <si>
+    <t>2024년08월01일</t>
+  </si>
+  <si>
+    <t>광림아트센터 장천홀</t>
+  </si>
+  <si>
+    <t>13위</t>
+  </si>
+  <si>
     <t>뮤지컬 [어쩌면 해피엔딩] 2024</t>
   </si>
   <si>
     <t>예스24스테이지 1관</t>
   </si>
   <si>
-    <t>13위</t>
+    <t>14위</t>
+  </si>
+  <si>
+    <t>ATEEZ 2024 FANMEETING〈ATINY’S VOYAGE FROM A TO Z〉</t>
+  </si>
+  <si>
+    <t>2024년07월06일</t>
+  </si>
+  <si>
+    <t>2024년07월07일</t>
+  </si>
+  <si>
+    <t>잠실실내체육관</t>
+  </si>
+  <si>
+    <t>15위</t>
+  </si>
+  <si>
+    <t>[얼리버드] 브라이언 레 창원 특별전：LOVE STORIES</t>
+  </si>
+  <si>
+    <t>2024년07월11일</t>
+  </si>
+  <si>
+    <t>3.15아트센터 전시장</t>
+  </si>
+  <si>
+    <t>16위</t>
+  </si>
+  <si>
+    <t>뮤지컬 〈사의찬미〉</t>
+  </si>
+  <si>
+    <t>2024년07월02일</t>
+  </si>
+  <si>
+    <t>2024년09월22일</t>
+  </si>
+  <si>
+    <t>링크아트센터 페이코홀</t>
+  </si>
+  <si>
+    <t>17위</t>
+  </si>
+  <si>
+    <t>뮤지컬 〈젠틀맨스 가이드：사랑과 살인편〉</t>
+  </si>
+  <si>
+    <t>2024년10월20일</t>
+  </si>
+  <si>
+    <t>광림아트센터 BBCH홀</t>
+  </si>
+  <si>
+    <t>18위</t>
+  </si>
+  <si>
+    <t>[익산] 2024 김창옥 토크콘서트 시즌4</t>
+  </si>
+  <si>
+    <t>2024년09월07일</t>
+  </si>
+  <si>
+    <t>익산 예술의전당 대공연장</t>
+  </si>
+  <si>
+    <t>19위</t>
   </si>
   <si>
     <t>뮤지컬 [이블데드]</t>
@@ -214,7 +292,19 @@
     <t>인터파크 유니플렉스 1관</t>
   </si>
   <si>
-    <t>14위</t>
+    <t>20위</t>
+  </si>
+  <si>
+    <t>연극 〈쇄골에 천사가 잠들고 있다〉</t>
+  </si>
+  <si>
+    <t>2024년05월17일</t>
+  </si>
+  <si>
+    <t>대학로 자유극장</t>
+  </si>
+  <si>
+    <t>21위</t>
   </si>
   <si>
     <t>Xdinary Heroes Concert〈Closed ♭eta: v6.2〉</t>
@@ -223,142 +313,115 @@
     <t>2024년07월05일</t>
   </si>
   <si>
-    <t>2024년07월07일</t>
-  </si>
-  <si>
     <t>YES24 LIVE HALL</t>
   </si>
   <si>
-    <t>15위</t>
-  </si>
-  <si>
-    <t>[얼리버드] 브라이언 레 창원 특별전：LOVE STORIES</t>
-  </si>
-  <si>
-    <t>2024년07월11일</t>
-  </si>
-  <si>
-    <t>3.15아트센터 전시장</t>
-  </si>
-  <si>
-    <t>16위</t>
-  </si>
-  <si>
-    <t>ATEEZ 2024 FANMEETING〈ATINY’S VOYAGE FROM A TO Z〉</t>
-  </si>
-  <si>
-    <t>2024년07월06일</t>
-  </si>
-  <si>
-    <t>잠실실내체육관</t>
-  </si>
-  <si>
-    <t>17위</t>
-  </si>
-  <si>
-    <t>뮤지컬 〈사의찬미〉</t>
-  </si>
-  <si>
-    <t>2024년07월02일</t>
-  </si>
-  <si>
-    <t>2024년09월22일</t>
-  </si>
-  <si>
-    <t>링크아트센터 페이코홀</t>
-  </si>
-  <si>
-    <t>18위</t>
+    <t>22위</t>
+  </si>
+  <si>
+    <t>뮤지컬 [메노포즈]</t>
+  </si>
+  <si>
+    <t>2024년06월13일</t>
+  </si>
+  <si>
+    <t>한전아트센터</t>
+  </si>
+  <si>
+    <t>23위</t>
+  </si>
+  <si>
+    <t>뮤지컬 〈무인도 탈출기〉</t>
+  </si>
+  <si>
+    <t>2024년05월12일</t>
+  </si>
+  <si>
+    <t>링크아트센터드림 드림2관</t>
+  </si>
+  <si>
+    <t>24위</t>
+  </si>
+  <si>
+    <t>Beyond LIVE-THE BOYZ WORLD TOUR : ZENERATION Ⅱ</t>
+  </si>
+  <si>
+    <t>2024년07월14일</t>
+  </si>
+  <si>
+    <t>Beyond LIVE (https://beyondlive.com)</t>
+  </si>
+  <si>
+    <t>25위</t>
+  </si>
+  <si>
+    <t>[창원] 2024 김창옥토크콘서트 시즌 4</t>
+  </si>
+  <si>
+    <t>2024년07월28일</t>
+  </si>
+  <si>
+    <t>창원성산아트홀 대극장</t>
+  </si>
+  <si>
+    <t>26위</t>
+  </si>
+  <si>
+    <t>뮤지컬 〈살리에르〉</t>
+  </si>
+  <si>
+    <t>2024년09월21일</t>
+  </si>
+  <si>
+    <t>세종문화회관 M씨어터</t>
+  </si>
+  <si>
+    <t>27위</t>
+  </si>
+  <si>
+    <t>뮤지컬 [클럽 드바이]</t>
+  </si>
+  <si>
+    <t>예스24스테이지 2관</t>
+  </si>
+  <si>
+    <t>28위</t>
   </si>
   <si>
     <t>THE BOYZ WORLD TOUR : ZENERATION Ⅱ</t>
   </si>
   <si>
-    <t>2024년07월14일</t>
-  </si>
-  <si>
     <t>KSPO DOME(올림픽체조경기장)</t>
   </si>
   <si>
-    <t>19위</t>
-  </si>
-  <si>
-    <t>뮤지컬 〈젠틀맨스 가이드：사랑과 살인편〉</t>
-  </si>
-  <si>
-    <t>2024년10월20일</t>
-  </si>
-  <si>
-    <t>광림아트센터 BBCH홀</t>
-  </si>
-  <si>
-    <t>20위</t>
-  </si>
-  <si>
-    <t>연극 〈쇄골에 천사가 잠들고 있다〉</t>
-  </si>
-  <si>
-    <t>2024년05월17일</t>
-  </si>
-  <si>
-    <t>대학로 자유극장</t>
-  </si>
-  <si>
-    <t>21위</t>
-  </si>
-  <si>
-    <t>[익산] 2024 김창옥 토크콘서트 시즌4</t>
-  </si>
-  <si>
-    <t>2024년09월07일</t>
-  </si>
-  <si>
-    <t>익산 예술의전당 대공연장</t>
-  </si>
-  <si>
-    <t>22위</t>
-  </si>
-  <si>
-    <t>[창원] 2024 김창옥토크콘서트 시즌 4</t>
-  </si>
-  <si>
-    <t>2024년07월28일</t>
-  </si>
-  <si>
-    <t>창원성산아트홀 대극장</t>
-  </si>
-  <si>
-    <t>23위</t>
-  </si>
-  <si>
-    <t>뮤지컬 〈무인도 탈출기〉</t>
-  </si>
-  <si>
-    <t>2024년05월12일</t>
-  </si>
-  <si>
-    <t>링크아트센터드림 드림2관</t>
-  </si>
-  <si>
-    <t>24위</t>
-  </si>
-  <si>
-    <t>Beyond LIVE-THE BOYZ WORLD TOUR : ZENERATION Ⅱ</t>
-  </si>
-  <si>
-    <t>Beyond LIVE (https://beyondlive.com)</t>
-  </si>
-  <si>
-    <t>25위</t>
-  </si>
-  <si>
-    <t>뮤지컬 [클럽 드바이]</t>
-  </si>
-  <si>
-    <t>예스24스테이지 2관</t>
-  </si>
-  <si>
-    <t>26위</t>
+    <t>29위</t>
+  </si>
+  <si>
+    <t>뮤지컬 〈4월은 너의 거짓말〉</t>
+  </si>
+  <si>
+    <t>2024년06월28일</t>
+  </si>
+  <si>
+    <t>예술의전당 CJ 토월극장</t>
+  </si>
+  <si>
+    <t>30위</t>
+  </si>
+  <si>
+    <t>[서울] 가족뮤지컬 [로보카폴리 - 잡아라! 황금트로피!]</t>
+  </si>
+  <si>
+    <t>2024년07월26일</t>
+  </si>
+  <si>
+    <t>2024년07월27일</t>
+  </si>
+  <si>
+    <t>건국대학교 새천년관 대공연장</t>
+  </si>
+  <si>
+    <t>31위</t>
   </si>
   <si>
     <t>2024 치즈 단독콘서트 ‘우릴 머금던 바다’</t>
@@ -367,7 +430,7 @@
     <t>예스24 원더로크홀</t>
   </si>
   <si>
-    <t>27위</t>
+    <t>32위</t>
   </si>
   <si>
     <t>스웨이드 내한공연 (Suede Live in Seoul)</t>
@@ -379,46 +442,7 @@
     <t>KBS 아레나(구88체육관)</t>
   </si>
   <si>
-    <t>28위</t>
-  </si>
-  <si>
-    <t>뮤지컬 [메노포즈]</t>
-  </si>
-  <si>
-    <t>2024년06월13일</t>
-  </si>
-  <si>
-    <t>한전아트센터</t>
-  </si>
-  <si>
-    <t>29위</t>
-  </si>
-  <si>
-    <t>뮤지컬 〈살리에르〉</t>
-  </si>
-  <si>
-    <t>2024년09월21일</t>
-  </si>
-  <si>
-    <t>세종문화회관 M씨어터</t>
-  </si>
-  <si>
-    <t>30위</t>
-  </si>
-  <si>
-    <t>[서울] 가족뮤지컬 [로보카폴리 - 잡아라! 황금트로피!]</t>
-  </si>
-  <si>
-    <t>2024년07월26일</t>
-  </si>
-  <si>
-    <t>2024년07월27일</t>
-  </si>
-  <si>
-    <t>건국대학교 새천년관 대공연장</t>
-  </si>
-  <si>
-    <t>31위</t>
+    <t>33위</t>
   </si>
   <si>
     <t>[대전] 가족매직쇼 [구구쌤의 매직쑈라구]</t>
@@ -433,19 +457,34 @@
     <t>대전 평송청소년문화센터 대극장</t>
   </si>
   <si>
-    <t>32위</t>
-  </si>
-  <si>
-    <t>뮤지컬 〈4월은 너의 거짓말〉</t>
-  </si>
-  <si>
-    <t>2024년06월28일</t>
-  </si>
-  <si>
-    <t>예술의전당 CJ 토월극장</t>
-  </si>
-  <si>
-    <t>33위</t>
+    <t>34위</t>
+  </si>
+  <si>
+    <t>2024 서울 팝콘(Seoul POPCON)</t>
+  </si>
+  <si>
+    <t>2024년08월16일</t>
+  </si>
+  <si>
+    <t>2024년08월18일</t>
+  </si>
+  <si>
+    <t>서울 코엑스 C홀</t>
+  </si>
+  <si>
+    <t>35위</t>
+  </si>
+  <si>
+    <t>[부산] 리온의 신비한 과자상점-어린이마술극(7월)</t>
+  </si>
+  <si>
+    <t>2024년07월13일</t>
+  </si>
+  <si>
+    <t>부산 북구문화예술회관</t>
+  </si>
+  <si>
+    <t>36위</t>
   </si>
   <si>
     <t>연극 〈빵야〉 혜공 전관 - 그래이공 DAY</t>
@@ -454,7 +493,16 @@
     <t>2024년07월10일</t>
   </si>
   <si>
-    <t>34위</t>
+    <t>37위</t>
+  </si>
+  <si>
+    <t>[안동] 2024 이찬원 콘서트 ‘ 찬가（燦歌）’</t>
+  </si>
+  <si>
+    <t>안동실내체육관</t>
+  </si>
+  <si>
+    <t>38위</t>
   </si>
   <si>
     <t>[오산] 2024 김창옥 토크콘서트 시즌4</t>
@@ -466,7 +514,7 @@
     <t>오산문화예술회관 대공연장</t>
   </si>
   <si>
-    <t>35위</t>
+    <t>39위</t>
   </si>
   <si>
     <t>[부천] 가족매직쇼 〈구구쌤의 매직쑈라구〉</t>
@@ -475,52 +523,52 @@
     <t>복사골문화센터 아트홀</t>
   </si>
   <si>
-    <t>36위</t>
+    <t>40위</t>
+  </si>
+  <si>
+    <t>김오키 새턴발라드 〈러브 인 새턴〉 _싱크넥스트24</t>
+  </si>
+  <si>
+    <t>세종문화회관 S씨어터</t>
+  </si>
+  <si>
+    <t>41위</t>
+  </si>
+  <si>
+    <t>[대전] 메타코미디 “Stand-up Assemble Comedy 24′TOUR”</t>
+  </si>
+  <si>
+    <t>충남대학교 정심화홀</t>
+  </si>
+  <si>
+    <t>42위</t>
+  </si>
+  <si>
+    <t>연극 〈클로저〉</t>
+  </si>
+  <si>
+    <t>2024년04월23일</t>
+  </si>
+  <si>
+    <t>플러스씨어터</t>
+  </si>
+  <si>
+    <t>43위</t>
   </si>
   <si>
     <t>XG 첫 월드 투어 [THE FIRST HOWL - Landing at Seoul]</t>
   </si>
   <si>
-    <t>37위</t>
-  </si>
-  <si>
-    <t>[안동] 2024 이찬원 콘서트 ‘ 찬가（燦歌）’</t>
-  </si>
-  <si>
-    <t>2024년07월13일</t>
-  </si>
-  <si>
-    <t>안동실내체육관</t>
-  </si>
-  <si>
-    <t>38위</t>
-  </si>
-  <si>
-    <t>연극 〈클로저〉</t>
-  </si>
-  <si>
-    <t>2024년04월23일</t>
-  </si>
-  <si>
-    <t>플러스씨어터</t>
-  </si>
-  <si>
-    <t>39위</t>
-  </si>
-  <si>
-    <t>2024 서울 팝콘(Seoul POPCON)</t>
-  </si>
-  <si>
-    <t>2024년08월16일</t>
-  </si>
-  <si>
-    <t>2024년08월18일</t>
-  </si>
-  <si>
-    <t>서울 코엑스 C홀</t>
-  </si>
-  <si>
-    <t>40위</t>
+    <t>44위</t>
+  </si>
+  <si>
+    <t>나씽 벗 띠브스 내한공연 (Nothing But Thieves Live in Seoul)</t>
+  </si>
+  <si>
+    <t>2024년08월21일</t>
+  </si>
+  <si>
+    <t>45위</t>
   </si>
   <si>
     <t>캐리tv 러브콘서트 2024 타임캡슐 - 인천</t>
@@ -529,7 +577,19 @@
     <t>부평아트센터 해누리극장</t>
   </si>
   <si>
-    <t>41위</t>
+    <t>46위</t>
+  </si>
+  <si>
+    <t>리얼뱅크시 REAL BANKSY</t>
+  </si>
+  <si>
+    <t>2024년05월10일</t>
+  </si>
+  <si>
+    <t>그라운드서울 기획전시관 (구.아라아트센터)</t>
+  </si>
+  <si>
+    <t>47위</t>
   </si>
   <si>
     <t>[안산] 2024 김창옥 토크콘서트 시즌4</t>
@@ -538,7 +598,7 @@
     <t>안산문화예술의전당 해돋이극장</t>
   </si>
   <si>
-    <t>42위</t>
+    <t>48위</t>
   </si>
   <si>
     <t>뮤지컬 [조선 이야기꾼 전기수]</t>
@@ -547,16 +607,7 @@
     <t>마포아트센터 아트홀맥</t>
   </si>
   <si>
-    <t>43위</t>
-  </si>
-  <si>
-    <t>나씽 벗 띠브스 내한공연 (Nothing But Thieves Live in Seoul)</t>
-  </si>
-  <si>
-    <t>2024년08월21일</t>
-  </si>
-  <si>
-    <t>44위</t>
+    <t>49위</t>
   </si>
   <si>
     <t>[부산] YEONGDO INDIE CONCERT [Romantic 영도]</t>
@@ -565,28 +616,70 @@
     <t>영도문화예술회관 봉래홀(대공연장)</t>
   </si>
   <si>
-    <t>45위</t>
-  </si>
-  <si>
-    <t>김오키 새턴발라드 〈러브 인 새턴〉 _싱크넥스트24</t>
-  </si>
-  <si>
-    <t>세종문화회관 S씨어터</t>
-  </si>
-  <si>
-    <t>46위</t>
-  </si>
-  <si>
-    <t>리얼뱅크시 REAL BANKSY</t>
-  </si>
-  <si>
-    <t>2024년05월10일</t>
-  </si>
-  <si>
-    <t>그라운드서울 기획전시관 (구.아라아트센터)</t>
-  </si>
-  <si>
-    <t>47위</t>
+    <t>50위</t>
+  </si>
+  <si>
+    <t>eaJ Live in Seoul ＂when the rain stopped following me＂</t>
+  </si>
+  <si>
+    <t>2024년09월13일</t>
+  </si>
+  <si>
+    <t>2024년09월14일</t>
+  </si>
+  <si>
+    <t>WOOAH FAN CONCERT [WOOAH - LAND]</t>
+  </si>
+  <si>
+    <t>2024년07월20일</t>
+  </si>
+  <si>
+    <t>양홍원 단독 콘서트 [오보에]</t>
+  </si>
+  <si>
+    <t>2024년08월04일</t>
+  </si>
+  <si>
+    <t>[울산] 진성 30주년 기념 콘서트 [진성 빅쇼]</t>
+  </si>
+  <si>
+    <t>2024년10월05일</t>
+  </si>
+  <si>
+    <t>KBS울산홀</t>
+  </si>
+  <si>
+    <t>ROCK CAFE RETRO 광주 SUMMER 콘서트</t>
+  </si>
+  <si>
+    <t>호남대학교 야외 특설무대</t>
+  </si>
+  <si>
+    <t>[부산] [ EUNOIA ] 크로스오버 콘서트 in 김광석</t>
+  </si>
+  <si>
+    <t>부산 소향씨어터 신한카드홀</t>
+  </si>
+  <si>
+    <t>메타코미디 〈코미디 어셈블: 스탠드업〉 _싱크넥스트24</t>
+  </si>
+  <si>
+    <t>2024년08월17일</t>
+  </si>
+  <si>
+    <t>[수원] 2024 이찬원 콘서트 ‘ 찬가（燦歌）’</t>
+  </si>
+  <si>
+    <t>수원실내체육관</t>
+  </si>
+  <si>
+    <t>[서울] 메타코미디 “Stand-up Assemble Comedy 24′TOUR”</t>
+  </si>
+  <si>
+    <t>연세대학교 대강당</t>
+  </si>
+  <si>
+    <t>imase 1st Asia Tour ＂Shiki＂</t>
   </si>
   <si>
     <t>HAVE A NICE TRIP 2024</t>
@@ -595,19 +688,46 @@
     <t>킨텍스 제2전시장 7,8홀</t>
   </si>
   <si>
-    <t>48위</t>
-  </si>
-  <si>
-    <t>eaJ Live in Seoul ＂when the rain stopped following me＂</t>
-  </si>
-  <si>
-    <t>2024년09월13일</t>
-  </si>
-  <si>
-    <t>2024년09월14일</t>
-  </si>
-  <si>
-    <t>49위</t>
+    <t>[전주] 나훈아 ‘2024 고마웠습니다-라스트 콘서트(LAST CONCERT)’</t>
+  </si>
+  <si>
+    <t>전주 실내체육관</t>
+  </si>
+  <si>
+    <t>알프(aLf) 단독콘서트</t>
+  </si>
+  <si>
+    <t>대원콘텐츠라이브공연장</t>
+  </si>
+  <si>
+    <t>유라 〈꽤 많은 수의 촉수 돌기〉 _싱크넥스트24</t>
+  </si>
+  <si>
+    <t>2024년08월09일</t>
+  </si>
+  <si>
+    <t>Live ＆ Music Festival</t>
+  </si>
+  <si>
+    <t>BADA THE OCEAN CONCERT ‘PINK SUMMER DREAM’</t>
+  </si>
+  <si>
+    <t>삼성동 백암아트홀</t>
+  </si>
+  <si>
+    <t>CHO TOKIMEKI SENDENBU KIMINO HEART NI ROCK ON TOUR 2024</t>
+  </si>
+  <si>
+    <t>2024 NCT 127 8th ANNIVERSARY FANMEETING〈8ECRET INVITATION〉</t>
+  </si>
+  <si>
+    <t>2024 전주얼티밋뮤직페스티벌 사전예매</t>
+  </si>
+  <si>
+    <t>전주종합경기장</t>
+  </si>
+  <si>
+    <t>NEKIRU 5th ONEMAN LIVE 「낭만주의」</t>
   </si>
   <si>
     <t>[광주] 2024 가족어린이공연 〈공룡애니멀쇼시즌2〉</t>
@@ -619,105 +739,6 @@
     <t>광주 예술의전당 대극장</t>
   </si>
   <si>
-    <t>50위</t>
-  </si>
-  <si>
-    <t>디즈니&amp;픽사 OST 콘서트</t>
-  </si>
-  <si>
-    <t>2024년07월20일</t>
-  </si>
-  <si>
-    <t>부천아트센터 콘서트홀</t>
-  </si>
-  <si>
-    <t>[울산] 진성 30주년 기념 콘서트 [진성 빅쇼]</t>
-  </si>
-  <si>
-    <t>2024년10월05일</t>
-  </si>
-  <si>
-    <t>KBS울산홀</t>
-  </si>
-  <si>
-    <t>양홍원 단독 콘서트 [오보에]</t>
-  </si>
-  <si>
-    <t>2024년08월04일</t>
-  </si>
-  <si>
-    <t>ROCK CAFE RETRO 광주 SUMMER 콘서트</t>
-  </si>
-  <si>
-    <t>호남대학교 야외 특설무대</t>
-  </si>
-  <si>
-    <t>[부산] [ EUNOIA ] 크로스오버 콘서트 in 김광석</t>
-  </si>
-  <si>
-    <t>부산 소향씨어터 신한카드홀</t>
-  </si>
-  <si>
-    <t>WOOAH FAN CONCERT [WOOAH - LAND]</t>
-  </si>
-  <si>
-    <t>[대전] 메타코미디 “Stand-up Assemble Comedy 24′TOUR”</t>
-  </si>
-  <si>
-    <t>충남대학교 정심화홀</t>
-  </si>
-  <si>
-    <t>메타코미디 〈코미디 어셈블: 스탠드업〉 _싱크넥스트24</t>
-  </si>
-  <si>
-    <t>2024년08월17일</t>
-  </si>
-  <si>
-    <t>유라 〈꽤 많은 수의 촉수 돌기〉 _싱크넥스트24</t>
-  </si>
-  <si>
-    <t>2024년08월09일</t>
-  </si>
-  <si>
-    <t>Live ＆ Music Festival</t>
-  </si>
-  <si>
-    <t>imase 1st Asia Tour ＂Shiki＂</t>
-  </si>
-  <si>
-    <t>[전주] 나훈아 ‘2024 고마웠습니다-라스트 콘서트(LAST CONCERT)’</t>
-  </si>
-  <si>
-    <t>전주 실내체육관</t>
-  </si>
-  <si>
-    <t>[수원] 2024 이찬원 콘서트 ‘ 찬가（燦歌）’</t>
-  </si>
-  <si>
-    <t>수원실내체육관</t>
-  </si>
-  <si>
-    <t>BADA THE OCEAN CONCERT ‘PINK SUMMER DREAM’</t>
-  </si>
-  <si>
-    <t>삼성동 백암아트홀</t>
-  </si>
-  <si>
-    <t>CHO TOKIMEKI SENDENBU KIMINO HEART NI ROCK ON TOUR 2024</t>
-  </si>
-  <si>
-    <t>알프(aLf) 단독콘서트</t>
-  </si>
-  <si>
-    <t>대원콘텐츠라이브공연장</t>
-  </si>
-  <si>
-    <t>2024 NCT 127 8th ANNIVERSARY FANMEETING〈8ECRET INVITATION〉</t>
-  </si>
-  <si>
-    <t>NEKIRU 5th ONEMAN LIVE 「낭만주의」</t>
-  </si>
-  <si>
     <t>[대구] 뮤지컬 〈바다 100층짜리 집〉</t>
   </si>
   <si>
@@ -736,16 +757,37 @@
     <t>부산 해운대문화회관 해운홀</t>
   </si>
   <si>
+    <t>[용인] 플레이 뮤지컬 〈핑크퐁과 아기상어의 무지개 구출 작전〉</t>
+  </si>
+  <si>
+    <t>용인문예회관 처인홀</t>
+  </si>
+  <si>
+    <t>[아산] 가족매직쇼 [구구쌤의 매직쑈라구]</t>
+  </si>
+  <si>
+    <t>아산시 평생학습관(구관) 1층 아산아트홀</t>
+  </si>
+  <si>
     <t>[고양] 가족뮤지컬 [로보카폴리-잡아라! 황금트로피!]</t>
   </si>
   <si>
     <t>고양어울림누리 어울림극장</t>
   </si>
   <si>
-    <t>[아산] 가족매직쇼 [구구쌤의 매직쑈라구]</t>
-  </si>
-  <si>
-    <t>아산시 평생학습관(구관) 1층 아산아트홀</t>
+    <t>[고양] 2024 라이브가족뮤지컬 〈피터팬〉</t>
+  </si>
+  <si>
+    <t>현대백화점 킨텍스점 9층 문화홀</t>
+  </si>
+  <si>
+    <t>뮤지컬 〈시데레우스〉</t>
+  </si>
+  <si>
+    <t>2024년07월24일</t>
+  </si>
+  <si>
+    <t>2024년10월13일</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BAF125-FB0C-4B87-9EA9-2111FFADA804}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D933CE23-DB66-4C0B-9EB5-9537B41DEFC8}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1207,38 +1249,38 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
@@ -1258,7 +1300,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>22</v>
@@ -1272,7 +1314,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -1289,7 +1331,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>29</v>
@@ -1309,7 +1351,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>33</v>
@@ -1377,7 +1419,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>52</v>
@@ -1391,27 +1433,27 @@
         <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>59</v>
@@ -1445,7 +1487,7 @@
         <v>67</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>68</v>
@@ -1462,21 +1504,21 @@
         <v>71</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>76</v>
@@ -1493,7 +1535,7 @@
         <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>80</v>
@@ -1510,10 +1552,10 @@
         <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>85</v>
@@ -1547,7 +1589,7 @@
         <v>92</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>93</v>
@@ -1564,7 +1606,7 @@
         <v>96</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>97</v>
@@ -1595,421 +1637,421 @@
         <v>103</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2020,30 +2062,30 @@
         <v>192</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>198</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2053,8 +2095,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996F977B-9D2F-4A34-91B9-615E4D1C9787}">
-  <dimension ref="A1:E35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819F695A-CB5A-4F64-84BD-1BD7C55B6D72}">
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -2090,21 +2132,21 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>61</v>
@@ -2121,19 +2163,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2141,16 +2183,16 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2158,16 +2200,16 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2175,16 +2217,16 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2192,16 +2234,16 @@
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2209,16 +2251,16 @@
         <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2226,7 +2268,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>46</v>
@@ -2235,7 +2277,7 @@
         <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2243,16 +2285,16 @@
         <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2260,16 +2302,16 @@
         <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2277,33 +2319,33 @@
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2311,16 +2353,16 @@
         <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2328,16 +2370,16 @@
         <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2345,33 +2387,33 @@
         <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2379,16 +2421,16 @@
         <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2396,16 +2438,16 @@
         <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2413,16 +2455,16 @@
         <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2430,16 +2472,16 @@
         <v>90</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2447,16 +2489,16 @@
         <v>94</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2467,13 +2509,13 @@
         <v>209</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2484,183 +2526,217 @@
         <v>211</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>110</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2670,7 +2746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961B8A6C-9DA3-45C6-AD36-AE6C1B9728CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0984D34-9CE7-4B6C-869D-8046DFBDF851}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2707,38 +2783,38 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
@@ -2792,16 +2868,16 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2809,16 +2885,16 @@
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2826,16 +2902,16 @@
         <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2843,10 +2919,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>76</v>
@@ -2863,10 +2939,10 @@
         <v>83</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>85</v>
@@ -2877,16 +2953,16 @@
         <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2894,33 +2970,33 @@
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2928,16 +3004,16 @@
         <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2945,16 +3021,16 @@
         <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2962,33 +3038,33 @@
         <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2996,16 +3072,16 @@
         <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3013,16 +3089,16 @@
         <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3030,16 +3106,16 @@
         <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3047,16 +3123,16 @@
         <v>90</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3064,16 +3140,16 @@
         <v>94</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3081,7 +3157,7 @@
         <v>98</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>47</v>
@@ -3090,7 +3166,7 @@
         <v>47</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3098,33 +3174,84 @@
         <v>102</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
